--- a/changeCSVtoXLSX/gold_prices_doji_09-12-2024.xlsx
+++ b/changeCSVtoXLSX/gold_prices_doji_09-12-2024.xlsx
@@ -62,55 +62,55 @@
     <t>Nhẫn Tròn 9999 (Hưng Thịnh Vượng) - Bán Lẻ</t>
   </si>
   <si>
-    <t>8,330,000</t>
+    <t>8,350,000</t>
+  </si>
+  <si>
+    <t>8,450,000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>SJC- Bán Lẻ</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>AVPL - Bán Lẻ</t>
+  </si>
+  <si>
+    <t>KTT + Kim Giáp - Bán Lẻ</t>
+  </si>
+  <si>
+    <t>Nữ Trang 9999 - Bán Lẻ</t>
+  </si>
+  <si>
+    <t>8,320,000</t>
+  </si>
+  <si>
+    <t>8,440,000</t>
+  </si>
+  <si>
+    <t>Nữ Trang 999 - Bán Lẻ</t>
+  </si>
+  <si>
+    <t>8,310,000</t>
   </si>
   <si>
     <t>8,430,000</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>SJC- Bán Lẻ</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>AVPL - Bán Lẻ</t>
-  </si>
-  <si>
-    <t>KTT + Kim Giáp - Bán Lẻ</t>
-  </si>
-  <si>
-    <t>Nữ Trang 9999 - Bán Lẻ</t>
-  </si>
-  <si>
-    <t>8,300,000</t>
-  </si>
-  <si>
-    <t>8,420,000</t>
-  </si>
-  <si>
-    <t>Nữ Trang 999 - Bán Lẻ</t>
-  </si>
-  <si>
-    <t>8,290,000</t>
-  </si>
-  <si>
-    <t>8,410,000</t>
-  </si>
-  <si>
     <t>Nữ trang 99 - Bán Lẻ</t>
   </si>
   <si>
-    <t>8,220,000</t>
-  </si>
-  <si>
-    <t>8,375,000</t>
+    <t>8,240,000</t>
+  </si>
+  <si>
+    <t>8,395,000</t>
   </si>
   <si>
     <t>Giá Nguyên Liệu 18k - Bán Lẻ</t>
